--- a/src/Cars/CommissionReport.xlsx
+++ b/src/Cars/CommissionReport.xlsx
@@ -369,14 +369,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:E2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:E2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="5">
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:F2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:F2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="6">
     <x:tableColumn id="1" name="No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="2" name="FirstName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="3" name="LastName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="4" name="Commission" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="5" name="OutStanding" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="Commission_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -774,6 +775,9 @@
       <x:c r="E1" t="str">
         <x:v>OutStanding</x:v>
       </x:c>
+      <x:c r="F1" t="str">
+        <x:v>Commission_Amount</x:v>
+      </x:c>
     </x:row>
     <x:row>
       <x:c r="A2" t="str">
@@ -789,6 +793,9 @@
         <x:v>0.0</x:v>
       </x:c>
       <x:c r="E2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="n">
         <x:v>0.0</x:v>
       </x:c>
     </x:row>
